--- a/results/100/result.xlsx
+++ b/results/100/result.xlsx
@@ -729,20 +729,20 @@
       <c r="O4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="n">
-        <v>0</v>
+      <c r="P4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>1</v>
@@ -753,11 +753,11 @@
       <c r="W4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>1</v>
+      <c r="X4" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,11 +904,11 @@
       <c r="V6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="n">
-        <v>0</v>
+      <c r="W6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y6" s="3" t="n">
         <v>0</v>
@@ -939,8 +939,8 @@
       <c r="H7" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>1</v>
+      <c r="I7" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
         <v>1</v>
@@ -1016,8 +1016,8 @@
       <c r="H8" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>1</v>
+      <c r="I8" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>1</v>
@@ -1034,8 +1034,8 @@
       <c r="N8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="2" t="n">
-        <v>1</v>
+      <c r="O8" t="n">
+        <v>0.9999999999998348</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>0</v>
@@ -1132,8 +1132,8 @@
       <c r="U9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="V9" s="2" t="n">
-        <v>1</v>
+      <c r="V9" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="n">
         <v>0</v>
@@ -1256,14 +1256,14 @@
       <c r="K11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="3" t="n">
-        <v>0</v>
+      <c r="L11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="O11" s="3" t="n">
         <v>0</v>
@@ -1283,8 +1283,8 @@
       <c r="T11" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U11" s="3" t="n">
-        <v>0</v>
+      <c r="U11" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V11" s="3" t="n">
         <v>0</v>
@@ -1380,8 +1380,8 @@
       <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
-        <v>0</v>
+      <c r="B13" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1</v>
@@ -1543,8 +1543,8 @@
       <c r="D15" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>1</v>
+      <c r="E15" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>1</v>
@@ -1617,14 +1617,14 @@
       <c r="C16" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="n">
-        <v>1</v>
+      <c r="D16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>1</v>
@@ -1674,11 +1674,11 @@
       <c r="V16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="n">
-        <v>0</v>
+      <c r="W16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y16" s="3" t="n">
         <v>0</v>
@@ -1742,8 +1742,8 @@
       <c r="S17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="2" t="n">
-        <v>1</v>
+      <c r="T17" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>1</v>
@@ -1751,8 +1751,8 @@
       <c r="V17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W17" s="3" t="n">
-        <v>0</v>
+      <c r="W17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X17" s="3" t="n">
         <v>0</v>
@@ -1789,8 +1789,8 @@
       <c r="I18" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="n">
-        <v>0</v>
+      <c r="J18" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
@@ -1902,8 +1902,8 @@
       <c r="U19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="3" t="n">
-        <v>0</v>
+      <c r="V19" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="W19" s="3" t="n">
         <v>0</v>
@@ -1946,17 +1946,17 @@
       <c r="J20" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>1</v>
+      <c r="K20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
         <v>0</v>
@@ -2269,20 +2269,20 @@
       <c r="O24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="n">
-        <v>0</v>
+      <c r="P24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U24" s="2" t="n">
         <v>1</v>
@@ -2293,11 +2293,11 @@
       <c r="W24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X24" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>1</v>
+      <c r="X24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2444,11 +2444,11 @@
       <c r="V26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X26" s="2" t="n">
-        <v>1</v>
+      <c r="W26" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y26" s="3" t="n">
         <v>0</v>
@@ -2559,8 +2559,8 @@
       <c r="I28" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J28" s="3" t="n">
-        <v>0</v>
+      <c r="J28" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -3083,8 +3083,8 @@
       <c r="D35" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E35" s="3" t="n">
-        <v>0</v>
+      <c r="E35" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>1</v>
@@ -3157,20 +3157,20 @@
       <c r="C36" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3" t="n">
-        <v>0</v>
+      <c r="D36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -3270,8 +3270,8 @@
       <c r="O37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P37" s="3" t="n">
-        <v>0</v>
+      <c r="P37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Q37" s="3" t="n">
         <v>0</v>
@@ -3282,8 +3282,8 @@
       <c r="S37" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T37" s="3" t="n">
-        <v>0</v>
+      <c r="T37" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U37" s="2" t="n">
         <v>1</v>
@@ -3291,8 +3291,8 @@
       <c r="V37" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W37" s="2" t="n">
-        <v>1</v>
+      <c r="W37" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X37" s="3" t="n">
         <v>0</v>
@@ -3329,8 +3329,8 @@
       <c r="I38" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="J38" s="2" t="n">
-        <v>1</v>
+      <c r="J38" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>1</v>
@@ -3486,17 +3486,17 @@
       <c r="J40" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="n">
-        <v>0</v>
+      <c r="K40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="O40" s="3" t="n">
         <v>0</v>
@@ -3593,8 +3593,8 @@
       <c r="T41" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="n">
-        <v>0</v>
+      <c r="U41" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="V41" s="3" t="n">
         <v>0</v>
@@ -3809,20 +3809,20 @@
       <c r="O44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S44" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T44" s="2" t="n">
-        <v>1</v>
+      <c r="P44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U44" s="2" t="n">
         <v>1</v>
@@ -3830,14 +3830,14 @@
       <c r="V44" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="3" t="n">
-        <v>0</v>
+      <c r="W44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y44" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -3927,8 +3927,8 @@
       <c r="C46" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="2" t="n">
-        <v>1</v>
+      <c r="D46" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E46" s="2" t="n">
         <v>1</v>
@@ -4052,8 +4052,8 @@
       <c r="S47" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="n">
-        <v>0</v>
+      <c r="T47" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="U47" s="2" t="n">
         <v>1</v>
@@ -4061,8 +4061,8 @@
       <c r="V47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W47" s="2" t="n">
-        <v>1</v>
+      <c r="W47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X47" s="3" t="n">
         <v>0</v>
@@ -4460,8 +4460,8 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>1</v>
+      <c r="B53" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1</v>
@@ -4697,8 +4697,8 @@
       <c r="C56" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D56" s="3" t="n">
-        <v>0</v>
+      <c r="D56" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>1</v>
@@ -4789,8 +4789,8 @@
       <c r="H57" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="n">
-        <v>0</v>
+      <c r="I57" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="n">
         <v>1</v>
@@ -4884,8 +4884,8 @@
       <c r="N58" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O58" s="3" t="n">
-        <v>0</v>
+      <c r="O58" t="n">
+        <v>2.155521382703454e-13</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>0</v>
@@ -5029,14 +5029,14 @@
       <c r="K60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="L60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>1</v>
+      <c r="L60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
         <v>0</v>
@@ -5056,8 +5056,8 @@
       <c r="T60" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U60" s="2" t="n">
-        <v>1</v>
+      <c r="U60" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="3" t="n">
         <v>0</v>
@@ -5322,11 +5322,11 @@
       <c r="F64" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G64" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="3" t="n">
-        <v>0</v>
+      <c r="G64" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -5393,8 +5393,8 @@
       <c r="D65" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E65" s="3" t="n">
-        <v>0</v>
+      <c r="E65" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>1</v>
@@ -5470,17 +5470,17 @@
       <c r="D66" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" s="2" t="n">
-        <v>1</v>
+      <c r="E66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
         <v>1</v>
@@ -5524,11 +5524,11 @@
       <c r="V66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X66" s="2" t="n">
-        <v>1</v>
+      <c r="W66" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y66" s="3" t="n">
         <v>0</v>
@@ -5559,8 +5559,8 @@
       <c r="H67" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I67" s="3" t="n">
-        <v>0</v>
+      <c r="I67" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J67" s="2" t="n">
         <v>1</v>
@@ -6092,11 +6092,11 @@
       <c r="F74" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="G74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H74" s="2" t="n">
-        <v>1</v>
+      <c r="G74" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="I74" s="2" t="n">
         <v>1</v>
@@ -6140,8 +6140,8 @@
       <c r="V74" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W74" s="2" t="n">
-        <v>1</v>
+      <c r="W74" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X74" s="3" t="n">
         <v>0</v>
@@ -6237,8 +6237,8 @@
       <c r="C76" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D76" s="2" t="n">
-        <v>1</v>
+      <c r="D76" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="E76" s="2" t="n">
         <v>1</v>
@@ -6297,8 +6297,8 @@
       <c r="W76" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X76" s="2" t="n">
-        <v>1</v>
+      <c r="X76" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Y76" s="3" t="n">
         <v>0</v>
@@ -6350,8 +6350,8 @@
       <c r="O77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P77" s="2" t="n">
-        <v>1</v>
+      <c r="P77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="Q77" s="3" t="n">
         <v>0</v>
@@ -6362,8 +6362,8 @@
       <c r="S77" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="T77" s="2" t="n">
-        <v>1</v>
+      <c r="T77" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U77" s="2" t="n">
         <v>1</v>
@@ -6371,11 +6371,11 @@
       <c r="V77" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="W77" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X77" s="3" t="n">
-        <v>0</v>
+      <c r="W77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="Y77" s="3" t="n">
         <v>0</v>
@@ -6489,17 +6489,17 @@
       <c r="J79" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" s="2" t="n">
-        <v>1</v>
+      <c r="K79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
         <v>0</v>
@@ -6596,8 +6596,8 @@
       <c r="T80" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U80" s="2" t="n">
-        <v>1</v>
+      <c r="U80" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="V80" s="3" t="n">
         <v>0</v>
@@ -6933,8 +6933,8 @@
       <c r="D85" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="E85" s="2" t="n">
-        <v>1</v>
+      <c r="E85" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>1</v>
@@ -7007,14 +7007,14 @@
       <c r="C86" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E86" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3" t="n">
-        <v>0</v>
+      <c r="D86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>1</v>
@@ -7099,8 +7099,8 @@
       <c r="H87" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I87" s="3" t="n">
-        <v>0</v>
+      <c r="I87" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J87" s="2" t="n">
         <v>1</v>
@@ -7212,14 +7212,14 @@
       <c r="T88" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V88" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W88" s="3" t="n">
-        <v>0</v>
+      <c r="U88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W88" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="X88" s="3" t="n">
         <v>0</v>
@@ -7336,17 +7336,17 @@
       <c r="J90" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M90" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N90" s="3" t="n">
-        <v>0</v>
+      <c r="K90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="O90" s="3" t="n">
         <v>0</v>
@@ -7659,20 +7659,20 @@
       <c r="O94" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="P94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="S94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T94" s="2" t="n">
-        <v>1</v>
+      <c r="P94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="U94" s="2" t="n">
         <v>1</v>
@@ -7683,11 +7683,11 @@
       <c r="W94" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="X94" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3" t="n">
-        <v>0</v>
+      <c r="X94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -7869,8 +7869,8 @@
       <c r="H97" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="I97" s="2" t="n">
-        <v>1</v>
+      <c r="I97" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="J97" s="2" t="n">
         <v>1</v>
@@ -7964,8 +7964,8 @@
       <c r="N98" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="O98" s="2" t="n">
-        <v>1</v>
+      <c r="O98" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="P98" s="3" t="n">
         <v>0</v>
@@ -7982,14 +7982,14 @@
       <c r="T98" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="U98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W98" s="2" t="n">
-        <v>1</v>
+      <c r="U98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="X98" s="3" t="n">
         <v>0</v>
@@ -8109,8 +8109,8 @@
       <c r="K100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L100" t="n">
-        <v>0.9999999999985448</v>
+      <c r="L100" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="M100" s="2" t="n">
         <v>1</v>
@@ -8409,16 +8409,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="C3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E3" t="n">
-        <v>455</v>
+        <v>454.9999999999989</v>
       </c>
       <c r="F3" t="n">
         <v>455</v>
@@ -8454,13 +8454,13 @@
         <v>455</v>
       </c>
       <c r="Q3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="R3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T3" t="n">
         <v>455</v>
@@ -8475,10 +8475,10 @@
         <v>455</v>
       </c>
       <c r="X3" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y3" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
@@ -8528,19 +8528,19 @@
         <v>130</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U4" t="n">
         <v>130</v>
@@ -8552,10 +8552,10 @@
         <v>130</v>
       </c>
       <c r="X4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8611,7 +8611,7 @@
         <v>130</v>
       </c>
       <c r="R5" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S5" t="n">
         <v>130</v>
@@ -8649,7 +8649,7 @@
         <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>52.4</v>
+        <v>85</v>
       </c>
       <c r="F6" t="n">
         <v>25</v>
@@ -8661,10 +8661,10 @@
         <v>25</v>
       </c>
       <c r="I6" t="n">
-        <v>52.4</v>
+        <v>85</v>
       </c>
       <c r="J6" t="n">
-        <v>112.4</v>
+        <v>145</v>
       </c>
       <c r="K6" t="n">
         <v>162</v>
@@ -8679,7 +8679,7 @@
         <v>162</v>
       </c>
       <c r="O6" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="P6" t="n">
         <v>85</v>
@@ -8691,22 +8691,22 @@
         <v>25</v>
       </c>
       <c r="S6" t="n">
+        <v>42</v>
+      </c>
+      <c r="T6" t="n">
+        <v>102</v>
+      </c>
+      <c r="U6" t="n">
+        <v>162</v>
+      </c>
+      <c r="V6" t="n">
+        <v>145</v>
+      </c>
+      <c r="W6" t="n">
+        <v>85</v>
+      </c>
+      <c r="X6" t="n">
         <v>25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>85</v>
-      </c>
-      <c r="U6" t="n">
-        <v>145</v>
-      </c>
-      <c r="V6" t="n">
-        <v>162</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -8738,22 +8738,22 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>22.69999999999757</v>
       </c>
       <c r="K7" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L7" t="n">
-        <v>65.29999999993379</v>
+        <v>80</v>
       </c>
       <c r="M7" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>65.29999999999927</v>
+        <v>80</v>
       </c>
       <c r="O7" t="n">
         <v>20</v>
@@ -8815,7 +8815,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>25</v>
@@ -8833,7 +8833,7 @@
         <v>25</v>
       </c>
       <c r="O8" t="n">
-        <v>25</v>
+        <v>24.99999999999587</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8928,10 +8928,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>10</v>
+        <v>19.6215318549753</v>
       </c>
       <c r="V9" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -9055,13 +9055,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9082,7 +9082,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>406.0000000000049</v>
       </c>
       <c r="C13" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D13" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E13" t="n">
         <v>455</v>
@@ -9227,10 +9227,10 @@
         <v>395</v>
       </c>
       <c r="R13" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S13" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T13" t="n">
         <v>455</v>
@@ -9245,10 +9245,10 @@
         <v>455</v>
       </c>
       <c r="X13" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y13" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14">
@@ -9304,7 +9304,7 @@
         <v>130</v>
       </c>
       <c r="R14" t="n">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="S14" t="n">
         <v>130</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>130</v>
@@ -9381,7 +9381,7 @@
         <v>130</v>
       </c>
       <c r="R15" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S15" t="n">
         <v>130</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.49999999999819</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>25</v>
@@ -9431,10 +9431,10 @@
         <v>25</v>
       </c>
       <c r="I16" t="n">
-        <v>72.59999999999931</v>
+        <v>46.98585912882712</v>
       </c>
       <c r="J16" t="n">
-        <v>132.5999999999993</v>
+        <v>106.9858591288271</v>
       </c>
       <c r="K16" t="n">
         <v>162</v>
@@ -9449,7 +9449,7 @@
         <v>162</v>
       </c>
       <c r="O16" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="P16" t="n">
         <v>85</v>
@@ -9470,13 +9470,13 @@
         <v>145</v>
       </c>
       <c r="V16" t="n">
-        <v>162</v>
+        <v>139.0000000000004</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>79.00000000000038</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -9514,16 +9514,16 @@
         <v>20</v>
       </c>
       <c r="K17" t="n">
-        <v>62</v>
+        <v>43.33968282851541</v>
       </c>
       <c r="L17" t="n">
-        <v>68</v>
+        <v>79.50044223144721</v>
       </c>
       <c r="M17" t="n">
-        <v>68</v>
+        <v>79.50044223144721</v>
       </c>
       <c r="N17" t="n">
-        <v>68</v>
+        <v>79.50044223144721</v>
       </c>
       <c r="O17" t="n">
         <v>20</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>80</v>
@@ -9550,7 +9550,7 @@
         <v>20</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
         <v>25</v>
@@ -9701,7 +9701,7 @@
         <v>10</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -9745,16 +9745,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9949,13 +9949,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C23" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D23" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E23" t="n">
         <v>455</v>
@@ -9997,10 +9997,10 @@
         <v>395</v>
       </c>
       <c r="R23" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S23" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T23" t="n">
         <v>455</v>
@@ -10015,10 +10015,10 @@
         <v>455</v>
       </c>
       <c r="X23" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y23" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="24">
@@ -10068,19 +10068,19 @@
         <v>130</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="U24" t="n">
         <v>130</v>
@@ -10092,10 +10092,10 @@
         <v>130</v>
       </c>
       <c r="X24" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -10151,7 +10151,7 @@
         <v>130</v>
       </c>
       <c r="R25" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S25" t="n">
         <v>130</v>
@@ -10189,22 +10189,22 @@
         <v>25</v>
       </c>
       <c r="E26" t="n">
-        <v>52.4</v>
+        <v>51.49999999999812</v>
       </c>
       <c r="F26" t="n">
-        <v>52.4</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
         <v>25</v>
       </c>
       <c r="H26" t="n">
-        <v>42.6</v>
+        <v>25</v>
       </c>
       <c r="I26" t="n">
-        <v>74.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="J26" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="K26" t="n">
         <v>162</v>
@@ -10219,7 +10219,7 @@
         <v>162</v>
       </c>
       <c r="O26" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="P26" t="n">
         <v>85</v>
@@ -10240,13 +10240,13 @@
         <v>145</v>
       </c>
       <c r="V26" t="n">
-        <v>107.2</v>
+        <v>162</v>
       </c>
       <c r="W26" t="n">
-        <v>47.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -10284,16 +10284,16 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L27" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M27" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N27" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O27" t="n">
         <v>20</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K28" t="n">
         <v>25</v>
@@ -10719,13 +10719,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C33" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D33" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E33" t="n">
         <v>455</v>
@@ -10764,13 +10764,13 @@
         <v>455</v>
       </c>
       <c r="Q33" t="n">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="R33" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S33" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T33" t="n">
         <v>455</v>
@@ -10785,10 +10785,10 @@
         <v>455</v>
       </c>
       <c r="X33" t="n">
-        <v>454</v>
+        <v>448.561716462462</v>
       </c>
       <c r="Y33" t="n">
-        <v>394</v>
+        <v>388.561716462462</v>
       </c>
     </row>
     <row r="34">
@@ -10844,7 +10844,7 @@
         <v>130</v>
       </c>
       <c r="R34" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="S34" t="n">
         <v>130</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
         <v>130</v>
@@ -10921,7 +10921,7 @@
         <v>130</v>
       </c>
       <c r="R35" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S35" t="n">
         <v>130</v>
@@ -10956,25 +10956,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>85.00000000000301</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I36" t="n">
-        <v>52.4</v>
+        <v>48.35382369968761</v>
       </c>
       <c r="J36" t="n">
-        <v>107.2</v>
+        <v>108.3538236996876</v>
       </c>
       <c r="K36" t="n">
         <v>162</v>
@@ -10989,7 +10989,7 @@
         <v>162</v>
       </c>
       <c r="O36" t="n">
-        <v>134.6</v>
+        <v>140.1004422314506</v>
       </c>
       <c r="P36" t="n">
         <v>85</v>
@@ -11010,10 +11010,10 @@
         <v>145</v>
       </c>
       <c r="V36" t="n">
-        <v>107.2</v>
+        <v>85</v>
       </c>
       <c r="W36" t="n">
-        <v>47.19999999999999</v>
+        <v>25</v>
       </c>
       <c r="X36" t="n">
         <v>25</v>
@@ -11054,22 +11054,22 @@
         <v>20</v>
       </c>
       <c r="K37" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L37" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M37" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N37" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O37" t="n">
         <v>20</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U37" t="n">
         <v>80</v>
@@ -11090,7 +11090,7 @@
         <v>20</v>
       </c>
       <c r="W37" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>25</v>
@@ -11285,16 +11285,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11392,7 +11392,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -11415,7 +11415,7 @@
         <v>455</v>
       </c>
       <c r="C42" t="n">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D42" t="n">
         <v>455</v>
@@ -11489,13 +11489,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>388</v>
+        <v>335</v>
       </c>
       <c r="C43" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D43" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E43" t="n">
         <v>455</v>
@@ -11534,13 +11534,13 @@
         <v>455</v>
       </c>
       <c r="Q43" t="n">
+        <v>414</v>
+      </c>
+      <c r="R43" t="n">
         <v>395</v>
       </c>
-      <c r="R43" t="n">
-        <v>394</v>
-      </c>
       <c r="S43" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T43" t="n">
         <v>455</v>
@@ -11555,10 +11555,10 @@
         <v>455</v>
       </c>
       <c r="X43" t="n">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="Y43" t="n">
-        <v>394</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44">
@@ -11608,19 +11608,19 @@
         <v>130</v>
       </c>
       <c r="P44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>130</v>
@@ -11629,13 +11629,13 @@
         <v>130</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45">
@@ -11691,7 +11691,7 @@
         <v>130</v>
       </c>
       <c r="R45" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S45" t="n">
         <v>130</v>
@@ -11726,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>25</v>
@@ -11741,10 +11741,10 @@
         <v>25</v>
       </c>
       <c r="I46" t="n">
-        <v>73.80000000000071</v>
+        <v>42</v>
       </c>
       <c r="J46" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="K46" t="n">
         <v>162</v>
@@ -11759,7 +11759,7 @@
         <v>162</v>
       </c>
       <c r="O46" t="n">
-        <v>134.6</v>
+        <v>102</v>
       </c>
       <c r="P46" t="n">
         <v>85</v>
@@ -11824,16 +11824,16 @@
         <v>20</v>
       </c>
       <c r="K47" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L47" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="M47" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="N47" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="O47" t="n">
         <v>20</v>
@@ -11851,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="U47" t="n">
         <v>80</v>
@@ -11860,7 +11860,7 @@
         <v>20</v>
       </c>
       <c r="W47" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="X47" t="n">
         <v>0</v>
@@ -12185,7 +12185,7 @@
         <v>455</v>
       </c>
       <c r="C52" t="n">
-        <v>455</v>
+        <v>385</v>
       </c>
       <c r="D52" t="n">
         <v>455</v>
@@ -12259,13 +12259,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="D53" t="n">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="E53" t="n">
         <v>455</v>
@@ -12307,10 +12307,10 @@
         <v>395</v>
       </c>
       <c r="R53" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S53" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T53" t="n">
         <v>455</v>
@@ -12325,10 +12325,10 @@
         <v>455</v>
       </c>
       <c r="X53" t="n">
-        <v>422</v>
+        <v>452.438283537538</v>
       </c>
       <c r="Y53" t="n">
-        <v>362</v>
+        <v>392.438283537538</v>
       </c>
     </row>
     <row r="54">
@@ -12461,7 +12461,7 @@
         <v>130</v>
       </c>
       <c r="R55" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S55" t="n">
         <v>130</v>
@@ -12496,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E56" t="n">
         <v>25</v>
@@ -12511,10 +12511,10 @@
         <v>25</v>
       </c>
       <c r="I56" t="n">
-        <v>52.4</v>
+        <v>42</v>
       </c>
       <c r="J56" t="n">
-        <v>112.4</v>
+        <v>102</v>
       </c>
       <c r="K56" t="n">
         <v>162</v>
@@ -12529,7 +12529,7 @@
         <v>162</v>
       </c>
       <c r="O56" t="n">
-        <v>134.6</v>
+        <v>102</v>
       </c>
       <c r="P56" t="n">
         <v>85</v>
@@ -12550,10 +12550,10 @@
         <v>145</v>
       </c>
       <c r="V56" t="n">
-        <v>107.2</v>
+        <v>85</v>
       </c>
       <c r="W56" t="n">
-        <v>47.19999999999999</v>
+        <v>25</v>
       </c>
       <c r="X56" t="n">
         <v>25</v>
@@ -12588,22 +12588,22 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J57" t="n">
         <v>20</v>
       </c>
       <c r="K57" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M57" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N57" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="O57" t="n">
         <v>20</v>
@@ -12683,7 +12683,7 @@
         <v>25</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>5.388803456758636e-12</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -12828,13 +12828,13 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -12855,7 +12855,7 @@
         <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -12955,7 +12955,7 @@
         <v>455</v>
       </c>
       <c r="C62" t="n">
-        <v>422</v>
+        <v>449.0000000000049</v>
       </c>
       <c r="D62" t="n">
         <v>455</v>
@@ -13029,13 +13029,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C63" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D63" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E63" t="n">
         <v>455</v>
@@ -13077,10 +13077,10 @@
         <v>395</v>
       </c>
       <c r="R63" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S63" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T63" t="n">
         <v>455</v>
@@ -13121,10 +13121,10 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="I64" t="n">
         <v>130</v>
@@ -13154,7 +13154,7 @@
         <v>130</v>
       </c>
       <c r="R64" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="S64" t="n">
         <v>130</v>
@@ -13192,7 +13192,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="F65" t="n">
         <v>130</v>
@@ -13231,7 +13231,7 @@
         <v>130</v>
       </c>
       <c r="R65" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S65" t="n">
         <v>130</v>
@@ -13269,22 +13269,22 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>52.4</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>52.4</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>52.4</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>52.4</v>
+        <v>42</v>
       </c>
       <c r="J66" t="n">
-        <v>107.2</v>
+        <v>102</v>
       </c>
       <c r="K66" t="n">
         <v>162</v>
@@ -13299,10 +13299,10 @@
         <v>162</v>
       </c>
       <c r="O66" t="n">
-        <v>134.6</v>
+        <v>102</v>
       </c>
       <c r="P66" t="n">
-        <v>85</v>
+        <v>82.20000000000073</v>
       </c>
       <c r="Q66" t="n">
         <v>25</v>
@@ -13320,13 +13320,13 @@
         <v>145</v>
       </c>
       <c r="V66" t="n">
-        <v>107.2</v>
+        <v>143.2999999999989</v>
       </c>
       <c r="W66" t="n">
-        <v>47.19999999999999</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y66" t="n">
         <v>0</v>
@@ -13358,22 +13358,22 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J67" t="n">
         <v>20</v>
       </c>
       <c r="K67" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L67" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="M67" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="N67" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="O67" t="n">
         <v>20</v>
@@ -13725,7 +13725,7 @@
         <v>455</v>
       </c>
       <c r="C72" t="n">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="D72" t="n">
         <v>455</v>
@@ -13799,13 +13799,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C73" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D73" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E73" t="n">
         <v>455</v>
@@ -13847,10 +13847,10 @@
         <v>395</v>
       </c>
       <c r="R73" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="S73" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="T73" t="n">
         <v>455</v>
@@ -13865,10 +13865,10 @@
         <v>455</v>
       </c>
       <c r="X73" t="n">
-        <v>454</v>
+        <v>395</v>
       </c>
       <c r="Y73" t="n">
-        <v>394</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74">
@@ -13891,10 +13891,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>130</v>
@@ -13924,7 +13924,7 @@
         <v>130</v>
       </c>
       <c r="R74" t="n">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="S74" t="n">
         <v>130</v>
@@ -13939,7 +13939,7 @@
         <v>130</v>
       </c>
       <c r="W74" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="X74" t="n">
         <v>0</v>
@@ -14001,7 +14001,7 @@
         <v>130</v>
       </c>
       <c r="R75" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S75" t="n">
         <v>130</v>
@@ -14036,13 +14036,13 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
         <v>25</v>
       </c>
-      <c r="E76" t="n">
-        <v>52.4</v>
-      </c>
       <c r="F76" t="n">
-        <v>35.2</v>
+        <v>25</v>
       </c>
       <c r="G76" t="n">
         <v>25</v>
@@ -14051,25 +14051,25 @@
         <v>25</v>
       </c>
       <c r="I76" t="n">
-        <v>52.4</v>
+        <v>36.66031717148527</v>
       </c>
       <c r="J76" t="n">
-        <v>112.4</v>
+        <v>96.66031717148527</v>
       </c>
       <c r="K76" t="n">
-        <v>162</v>
+        <v>156.6603171714853</v>
       </c>
       <c r="L76" t="n">
-        <v>162</v>
+        <v>159.7995577685521</v>
       </c>
       <c r="M76" t="n">
-        <v>162</v>
+        <v>159.7995577685521</v>
       </c>
       <c r="N76" t="n">
-        <v>162</v>
+        <v>159.7995577685521</v>
       </c>
       <c r="O76" t="n">
-        <v>134.6</v>
+        <v>99.79955776855206</v>
       </c>
       <c r="P76" t="n">
         <v>85</v>
@@ -14084,19 +14084,19 @@
         <v>25</v>
       </c>
       <c r="T76" t="n">
+        <v>67</v>
+      </c>
+      <c r="U76" t="n">
+        <v>127</v>
+      </c>
+      <c r="V76" t="n">
         <v>85</v>
       </c>
-      <c r="U76" t="n">
-        <v>145</v>
-      </c>
-      <c r="V76" t="n">
-        <v>88.00000000000004</v>
-      </c>
       <c r="W76" t="n">
-        <v>28.00000000000004</v>
+        <v>25</v>
       </c>
       <c r="X76" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y76" t="n">
         <v>0</v>
@@ -14134,22 +14134,22 @@
         <v>20</v>
       </c>
       <c r="K77" t="n">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="L77" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="M77" t="n">
-        <v>67.20000000008076</v>
+        <v>20</v>
       </c>
       <c r="N77" t="n">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="O77" t="n">
         <v>20</v>
       </c>
       <c r="P77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -14161,19 +14161,19 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="U77" t="n">
-        <v>68</v>
+        <v>53.3784681450247</v>
       </c>
       <c r="V77" t="n">
         <v>20</v>
       </c>
       <c r="W77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X77" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y77" t="n">
         <v>0</v>
@@ -14288,16 +14288,16 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
         <v>0</v>
@@ -14495,7 +14495,7 @@
         <v>455</v>
       </c>
       <c r="C82" t="n">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D82" t="n">
         <v>455</v>
@@ -14569,13 +14569,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>334</v>
+        <v>305.9999999999951</v>
       </c>
       <c r="C83" t="n">
-        <v>394</v>
+        <v>365.9999999999951</v>
       </c>
       <c r="D83" t="n">
-        <v>454</v>
+        <v>425.9999999999968</v>
       </c>
       <c r="E83" t="n">
         <v>455</v>
@@ -14617,10 +14617,10 @@
         <v>395</v>
       </c>
       <c r="R83" t="n">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="S83" t="n">
-        <v>454</v>
+        <v>399</v>
       </c>
       <c r="T83" t="n">
         <v>455</v>
@@ -14694,7 +14694,7 @@
         <v>130</v>
       </c>
       <c r="R84" t="n">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="S84" t="n">
         <v>130</v>
@@ -14732,7 +14732,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>130</v>
@@ -14771,7 +14771,7 @@
         <v>130</v>
       </c>
       <c r="R85" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S85" t="n">
         <v>130</v>
@@ -14806,25 +14806,25 @@
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G86" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H86" t="n">
-        <v>25</v>
+        <v>69.99999999999959</v>
       </c>
       <c r="I86" t="n">
-        <v>52.4</v>
+        <v>102</v>
       </c>
       <c r="J86" t="n">
-        <v>107.2</v>
+        <v>162</v>
       </c>
       <c r="K86" t="n">
         <v>162</v>
@@ -14839,10 +14839,10 @@
         <v>162</v>
       </c>
       <c r="O86" t="n">
-        <v>119.4999999999997</v>
+        <v>145</v>
       </c>
       <c r="P86" t="n">
-        <v>82.20000000000073</v>
+        <v>85</v>
       </c>
       <c r="Q86" t="n">
         <v>25</v>
@@ -14854,13 +14854,13 @@
         <v>25</v>
       </c>
       <c r="T86" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="U86" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V86" t="n">
-        <v>143.2999999999993</v>
+        <v>162</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -14898,22 +14898,22 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J87" t="n">
         <v>20</v>
       </c>
       <c r="K87" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="L87" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M87" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N87" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O87" t="n">
         <v>20</v>
@@ -14934,7 +14934,7 @@
         <v>20</v>
       </c>
       <c r="U87" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="V87" t="n">
         <v>20</v>
@@ -15011,13 +15011,13 @@
         <v>0</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="W88" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="X88" t="n">
         <v>0</v>
@@ -15135,16 +15135,16 @@
         <v>0</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -15265,7 +15265,7 @@
         <v>455</v>
       </c>
       <c r="C92" t="n">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="D92" t="n">
         <v>455</v>
@@ -15339,13 +15339,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C93" t="n">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D93" t="n">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E93" t="n">
         <v>455</v>
@@ -15387,10 +15387,10 @@
         <v>395</v>
       </c>
       <c r="R93" t="n">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="S93" t="n">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="T93" t="n">
         <v>455</v>
@@ -15405,10 +15405,10 @@
         <v>455</v>
       </c>
       <c r="X93" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Y93" t="n">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="94">
@@ -15458,19 +15458,19 @@
         <v>130</v>
       </c>
       <c r="P94" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="U94" t="n">
         <v>130</v>
@@ -15482,10 +15482,10 @@
         <v>130</v>
       </c>
       <c r="X94" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="Y94" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
@@ -15541,7 +15541,7 @@
         <v>130</v>
       </c>
       <c r="R95" t="n">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="S95" t="n">
         <v>130</v>
@@ -15579,10 +15579,10 @@
         <v>25</v>
       </c>
       <c r="E96" t="n">
-        <v>52.4</v>
+        <v>25</v>
       </c>
       <c r="F96" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G96" t="n">
         <v>25</v>
@@ -15591,10 +15591,10 @@
         <v>25</v>
       </c>
       <c r="I96" t="n">
-        <v>74.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="J96" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="K96" t="n">
         <v>162</v>
@@ -15609,7 +15609,7 @@
         <v>162</v>
       </c>
       <c r="O96" t="n">
-        <v>134.6</v>
+        <v>145</v>
       </c>
       <c r="P96" t="n">
         <v>85</v>
@@ -15630,10 +15630,10 @@
         <v>145</v>
       </c>
       <c r="V96" t="n">
-        <v>107.2</v>
+        <v>85</v>
       </c>
       <c r="W96" t="n">
-        <v>47.2</v>
+        <v>25</v>
       </c>
       <c r="X96" t="n">
         <v>25</v>
@@ -15668,22 +15668,22 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>20</v>
       </c>
       <c r="K97" t="n">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="L97" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="M97" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="N97" t="n">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O97" t="n">
         <v>20</v>
@@ -15763,7 +15763,7 @@
         <v>25</v>
       </c>
       <c r="O98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P98" t="n">
         <v>0</v>
@@ -15781,13 +15781,13 @@
         <v>0</v>
       </c>
       <c r="U98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="X98" t="n">
         <v>0</v>
@@ -15908,7 +15908,7 @@
         <v>10</v>
       </c>
       <c r="L100" t="n">
-        <v>9.999999999985448</v>
+        <v>10</v>
       </c>
       <c r="M100" t="n">
         <v>10</v>
@@ -16159,56 +16159,56 @@
       <c r="G2" t="n">
         <v>-1</v>
       </c>
-      <c r="H2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3" t="n">
-        <v>0</v>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-1</v>
       </c>
       <c r="Y2" t="n">
         <v>-1</v>
@@ -16341,25 +16341,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>209.2000000000007</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>247</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>254.7000000000797</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>264.7999999999184</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>254.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>140.1000000000004</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>85.79999999999927</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -16371,13 +16371,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>283.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
